--- a/Yearly-Report-2022-IT213456.xlsx
+++ b/Yearly-Report-2022-IT213456.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhashimk\Documents\UiPath\Generate Yearly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C4260-85B1-4991-8419-BEDEBC64F757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E2A053-8323-4C04-B561-F97D1E0964CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2790" windowWidth="21600" windowHeight="11235" xr2:uid="{3E003A71-1874-4730-879E-B986521398F7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{3E003A71-1874-4730-879E-B986521398F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,255 +470,255 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>979875</v>
+        <v>683795</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>186546</v>
+        <v>124045</v>
       </c>
       <c r="D2">
-        <v>37309.199999999997</v>
+        <v>24809</v>
       </c>
       <c r="E2">
-        <v>223855</v>
+        <v>148854</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
-        <v>42742</v>
+        <v>42762</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>466035</v>
+        <v>534922</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>188552</v>
+        <v>11039</v>
       </c>
       <c r="D3">
-        <v>37710.400000000001</v>
+        <v>2207.8000000000002</v>
       </c>
       <c r="E3">
-        <v>226262</v>
+        <v>13246.8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>43043</v>
+        <v>43044</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>271021</v>
+        <v>870490</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>209157</v>
+        <v>1974</v>
       </c>
       <c r="D4">
-        <v>41831.4</v>
+        <v>394.8</v>
       </c>
       <c r="E4">
-        <v>250988</v>
+        <v>2368.8000000000002</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>43041</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>944417</v>
+        <v>818966</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>5315</v>
+        <v>47891</v>
       </c>
       <c r="D5">
-        <v>1063</v>
+        <v>9578.2000000000007</v>
       </c>
       <c r="E5">
-        <v>6378</v>
+        <v>57469.2</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>43058</v>
+        <v>42797</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>126873</v>
+        <v>317509</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>33067</v>
+        <v>225192</v>
       </c>
       <c r="D6">
-        <v>6613.4</v>
+        <v>45038.400000000001</v>
       </c>
       <c r="E6">
-        <v>39680.400000000001</v>
+        <v>270230</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <v>42770</v>
+        <v>42798</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>881049</v>
+        <v>298362</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>41196</v>
+        <v>237169</v>
       </c>
       <c r="D7">
-        <v>8239.2000000000007</v>
+        <v>47433.8</v>
       </c>
       <c r="E7">
-        <v>49435.199999999997</v>
+        <v>284603</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1">
-        <v>42793</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>460301</v>
+        <v>888991</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>109573</v>
+        <v>72810</v>
       </c>
       <c r="D8">
-        <v>21914.6</v>
+        <v>14562</v>
       </c>
       <c r="E8">
-        <v>131488</v>
+        <v>87372</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>42775</v>
+        <v>42850</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>944910</v>
+        <v>732332</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>57761</v>
+        <v>33292</v>
       </c>
       <c r="D9">
-        <v>11552.2</v>
+        <v>6658.4</v>
       </c>
       <c r="E9">
-        <v>69313.2</v>
+        <v>39950.400000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1">
-        <v>42770</v>
+        <v>42896</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>587264</v>
+        <v>325519</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>178649</v>
+        <v>59889</v>
       </c>
       <c r="D10">
-        <v>35729.800000000003</v>
+        <v>11977.8</v>
       </c>
       <c r="E10">
-        <v>214379</v>
+        <v>71866.8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>42846</v>
+        <v>42897</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>562825</v>
+        <v>558227</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>25552</v>
+        <v>140795</v>
       </c>
       <c r="D11">
-        <v>5110.3999999999996</v>
+        <v>28159</v>
       </c>
       <c r="E11">
-        <v>30662.400000000001</v>
+        <v>168954</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>42883</v>
+        <v>42938</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>717367</v>
+        <v>682567</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>241449</v>
+        <v>143671</v>
       </c>
       <c r="D12">
-        <v>48289.8</v>
+        <v>28734.2</v>
       </c>
       <c r="E12">
-        <v>289739</v>
+        <v>172405</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1">
-        <v>42939</v>
+        <v>42990</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
